--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73961745-8252-4C9E-B049-3A9684975368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16320" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -252,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,11 +738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,20 +1840,24 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="13">
+      <c r="D57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="19">
         <v>44136</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="19">
+        <v>44137</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="76">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>When add button is pressed, current customer needs to be changed</t>
+  </si>
+  <si>
+    <t>Implement total units and customers not in canvas</t>
+  </si>
+  <si>
+    <t>OnChange doesn't set editoff</t>
   </si>
 </sst>
 </file>
@@ -742,7 +748,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="F60" sqref="A60:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,38 +1881,64 @@
       <c r="E58" s="19">
         <v>44136</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="19">
+        <v>44137</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="13">
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="19">
         <v>44136</v>
       </c>
-      <c r="F59" s="11"/>
+      <c r="F59" s="19">
+        <v>44137</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="A60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="19">
+        <v>44137</v>
+      </c>
+      <c r="F60" s="19">
+        <v>44137</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D61" s="8"/>
-      <c r="E61" s="11"/>
+      <c r="E61" s="13">
+        <v>44137</v>
+      </c>
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -251,7 +251,7 @@
     <t>Implement total units and customers not in canvas</t>
   </si>
   <si>
-    <t>OnChange doesn't set editoff</t>
+    <t>OnChange removes selection of unitList if unit is not in canvas</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F60" sqref="A60:F60"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="77">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>OnChange removes selection of unitList if unit is not in canvas</t>
+  </si>
+  <si>
+    <t>Rare bug not allowing customer to be created</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,12 +1945,24 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="A62" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="19">
+        <v>44138</v>
+      </c>
+      <c r="F62" s="19">
+        <v>44138</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="78">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Rare bug not allowing customer to be created</t>
+  </si>
+  <si>
+    <t>When adding only customer to rack, customer says it's not in truck until onChange on customer.</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,20 +1932,24 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="13">
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="19">
         <v>44137</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="19">
+        <v>44138</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
@@ -1964,12 +1971,20 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="7"/>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D63" s="8"/>
-      <c r="E63" s="11"/>
+      <c r="E63" s="13">
+        <v>44138</v>
+      </c>
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="78">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -754,7 +754,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,11 +1981,15 @@
       <c r="C63" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E63" s="13">
         <v>44138</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="13">
+        <v>44138</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16320" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,22 +1972,22 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="19">
         <v>44138</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="19">
         <v>44138</v>
       </c>
     </row>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB2E74-D8BE-4F73-A693-333DDEE7EEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -258,12 +259,21 @@
   </si>
   <si>
     <t>When adding only customer to rack, customer says it's not in truck until onChange on customer.</t>
+  </si>
+  <si>
+    <t>When drag and dropping a unit from unit list, if the unit preview causes the list to shift where the mouse is on a different index of the unit list it'll cause an error for sortable js</t>
+  </si>
+  <si>
+    <t>Loading sometimes doesn't restore trailer text</t>
+  </si>
+  <si>
+    <t>Unit edit button stops working when using straps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,11 +760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,28 +2001,52 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="7"/>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D64" s="8"/>
-      <c r="E64" s="11"/>
+      <c r="E64" s="13">
+        <v>44142</v>
+      </c>
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D65" s="8"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="13">
+        <v>44142</v>
+      </c>
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D66" s="8"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="13">
+        <v>44142</v>
+      </c>
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB2E74-D8BE-4F73-A693-333DDEE7EEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -273,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,52 +2001,64 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="13">
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="19">
         <v>44142</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="19">
+        <v>44142</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="13">
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="19">
         <v>44142</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="19">
+        <v>44142</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="13">
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="19">
         <v>44142</v>
       </c>
-      <c r="F66" s="11"/>
+      <c r="F66" s="19">
+        <v>44142</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA8EE1-02D5-42F6-9BE9-C359D9F05449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="82">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -267,12 +268,15 @@
   </si>
   <si>
     <t>Unit edit button stops working when using straps</t>
+  </si>
+  <si>
+    <t>Changing drop sequence doesn't work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -759,11 +763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,11 +2065,19 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="11"/>
+      <c r="E67" s="13">
+        <v>44143</v>
+      </c>
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA8EE1-02D5-42F6-9BE9-C359D9F05449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77AA27-AABF-4DEA-AD7E-5EBBDE5013C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="83">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -270,7 +270,10 @@
     <t>Unit edit button stops working when using straps</t>
   </si>
   <si>
-    <t>Changing drop sequence doesn't work</t>
+    <t>Update unit only adds to weight and not removes previous weight</t>
+  </si>
+  <si>
+    <t>Changelog div text appears on webpage sometimes</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,29 +2067,45 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="13">
-        <v>44143</v>
-      </c>
-      <c r="F67" s="11"/>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="19">
+        <v>44170</v>
+      </c>
+      <c r="F67" s="19">
+        <v>44170</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="A68" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="19">
+        <v>44180</v>
+      </c>
+      <c r="F68" s="19">
+        <v>44170</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77AA27-AABF-4DEA-AD7E-5EBBDE5013C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9A0EF-5E82-4E2F-8516-E3D12D3FCC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Changelog div text appears on webpage sometimes</t>
+  </si>
+  <si>
+    <t>Implement a barcode feature for turckID scanning</t>
+  </si>
+  <si>
+    <t>Tools sometimes unselectable and doesn't add to weight after changing truck</t>
   </si>
 </sst>
 </file>
@@ -769,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,26 +2107,42 @@
         <v>9</v>
       </c>
       <c r="E68" s="19">
-        <v>44180</v>
+        <v>44170</v>
       </c>
       <c r="F68" s="19">
         <v>44170</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="11"/>
+      <c r="E69" s="13">
+        <v>44171</v>
+      </c>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="7"/>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="11"/>
+      <c r="E70" s="13">
+        <v>44171</v>
+      </c>
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9A0EF-5E82-4E2F-8516-E3D12D3FCC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5AAF1-3269-41E6-9B1A-0790A91FBD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="86">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Tools sometimes unselectable and doesn't add to weight after changing truck</t>
+  </si>
+  <si>
+    <t>Update changes font size</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2149,9 @@
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="B71" s="9"/>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5AAF1-3269-41E6-9B1A-0790A91FBD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481EEBE2-9F9F-4208-BD5E-694AD9E36409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="88">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Update changes font size</t>
+  </si>
+  <si>
+    <t>Importing trucks can be duplicated if truckid has different trucks in it</t>
+  </si>
+  <si>
+    <t>When printing with a weight that is zero, the weight text doesn’t reappear</t>
   </si>
 </sst>
 </file>
@@ -779,7 +785,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="A75" sqref="A74:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,16 +2164,20 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="B72" s="9"/>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="B73" s="9"/>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481EEBE2-9F9F-4208-BD5E-694AD9E36409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188AFDB-298E-403E-8580-F8E81846663A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -282,13 +282,19 @@
     <t>Tools sometimes unselectable and doesn't add to weight after changing truck</t>
   </si>
   <si>
-    <t>Update changes font size</t>
-  </si>
-  <si>
     <t>Importing trucks can be duplicated if truckid has different trucks in it</t>
   </si>
   <si>
-    <t>When printing with a weight that is zero, the weight text doesn’t reappear</t>
+    <t>If two units end in the same last 4 digits, only one appears regardless of customer/drop</t>
+  </si>
+  <si>
+    <t>When loading a save, weight doesn’t show</t>
+  </si>
+  <si>
+    <t>Bundles that have numbers in it show up as units (Bundle 20")</t>
+  </si>
+  <si>
+    <t>Update changes customer font size</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A75" sqref="A74:A75"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,82 +2129,132 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="13">
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="19">
         <v>44171</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="19">
+        <v>44171</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="13">
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="19">
         <v>44171</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="19">
+        <v>44171</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D71" s="8"/>
-      <c r="E71" s="11"/>
+      <c r="E71" s="13">
+        <v>44185</v>
+      </c>
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="13">
+        <v>44185</v>
+      </c>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="19">
+        <v>44185</v>
+      </c>
+      <c r="F73" s="19">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="11"/>
+      <c r="E74" s="13">
+        <v>44185</v>
+      </c>
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
+      <c r="A75" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="19">
+        <v>44185</v>
+      </c>
+      <c r="F75" s="19">
+        <v>44185</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188AFDB-298E-403E-8580-F8E81846663A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC4E01-4CAB-47B2-AECC-8EDE1B37CAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="91">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Update changes customer font size</t>
+  </si>
+  <si>
+    <t>Restoring from save causes weight regions to be placed wrong</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,12 +2259,20 @@
         <v>44185</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="7"/>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="11"/>
+      <c r="E76" s="13">
+        <v>44185</v>
+      </c>
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC4E01-4CAB-47B2-AECC-8EDE1B37CAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -298,12 +297,15 @@
   </si>
   <si>
     <t>Restoring from save causes weight regions to be placed wrong</t>
+  </si>
+  <si>
+    <t>Selecting 2 section trucks then 3 section trucks cause weight text to be placed wrong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -790,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,13 +2277,25 @@
       </c>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="19">
+        <v>44194</v>
+      </c>
+      <c r="F77" s="19">
+        <v>44194</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Importing trucks can be duplicated if truckid has different trucks in it</t>
   </si>
   <si>
-    <t>If two units end in the same last 4 digits, only one appears regardless of customer/drop</t>
-  </si>
-  <si>
     <t>When loading a save, weight doesn’t show</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Selecting 2 section trucks then 3 section trucks cause weight text to be placed wrong</t>
+  </si>
+  <si>
+    <t>If two units end in the same last 4 digits during import, only one appears regardless of customer/drop</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>16</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>16</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>16</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>16</v>
@@ -2262,24 +2262,28 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="A76" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="13">
+      <c r="D76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="19">
         <v>44185</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="19">
+        <v>44195</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>16</v>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="94">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>If two units end in the same last 4 digits during import, only one appears regardless of customer/drop</t>
+  </si>
+  <si>
+    <t>Needs testing</t>
+  </si>
+  <si>
+    <t>Implement Jsdoc</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +400,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -422,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -465,6 +477,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,20 +2243,22 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="13">
+      <c r="D74" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="28">
         <v>44185</v>
       </c>
-      <c r="F74" s="11"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
@@ -2302,11 +2321,19 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="7"/>
+      <c r="A78" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D78" s="8"/>
-      <c r="E78" s="11"/>
+      <c r="E78" s="13">
+        <v>44198</v>
+      </c>
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896ED65A-47FC-44AE-B1A8-50A0CF05929F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -306,12 +307,21 @@
   </si>
   <si>
     <t>Implement Jsdoc</t>
+  </si>
+  <si>
+    <t>Rack toggle doesn’t work if toggling imported home depot with different names</t>
+  </si>
+  <si>
+    <t>Selecting unit from list should remove any search text</t>
+  </si>
+  <si>
+    <t>Add drop down for all customer names</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -809,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,24 +2346,46 @@
       </c>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="19">
+        <v>44205</v>
+      </c>
+      <c r="F79" s="19">
+        <v>44205</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="7"/>
+      <c r="A80" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="11"/>
+      <c r="E80" s="13">
+        <v>44205</v>
+      </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
+      <c r="A81" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="B81" s="9"/>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896ED65A-47FC-44AE-B1A8-50A0CF05929F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C08D8-549B-4418-9E91-2C235A461D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Add drop down for all customer names</t>
+  </si>
+  <si>
+    <t>Can't update unit twice, possibly because it is the only unit with that name (home depot)</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,20 +2370,24 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="B80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="13">
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="19">
         <v>44205</v>
       </c>
-      <c r="F80" s="11"/>
+      <c r="F80" s="19">
+        <v>44205</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
@@ -2392,10 +2399,16 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="7"/>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C08D8-549B-4418-9E91-2C235A461D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F4DE0-5678-4D83-8C8D-516CAB0534C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F82" sqref="A82:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,18 +2400,24 @@
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="D82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="19">
+        <v>44205</v>
+      </c>
+      <c r="F82" s="19">
+        <v>44205</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F4DE0-5678-4D83-8C8D-516CAB0534C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F74186-B758-4A4C-BC7C-9A88C7C77CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="101">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Can't update unit twice, possibly because it is the only unit with that name (home depot)</t>
+  </si>
+  <si>
+    <t>Make the main customer name HD if they are home depots</t>
+  </si>
+  <si>
+    <t>Move rows information to php server side</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
 </sst>
 </file>
@@ -825,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F82" sqref="A82:F82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,20 +2213,24 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="13">
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="19">
         <v>44185</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="19">
+        <v>44198</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -2420,7 +2433,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
+      <c r="A83" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="B83" s="9"/>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -2428,11 +2443,19 @@
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="11"/>
+      <c r="E84" s="13">
+        <v>44206</v>
+      </c>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F74186-B758-4A4C-BC7C-9A88C7C77CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="103">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -328,12 +327,18 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>Cant move both units that have the same last tag numbers to canvas</t>
+  </si>
+  <si>
+    <t>When selecting a unit in unit list that has two of the same customer and last 4 digits it only selects the first one regardless of which you select</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,11 +836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,18 +2463,30 @@
       </c>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="7"/>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D85" s="8"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="7"/>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D86" s="8"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYNC\js-truckwrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3964EB-768B-42D2-ACFB-3CD653D214E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -333,12 +334,15 @@
   </si>
   <si>
     <t>When selecting a unit in unit list that has two of the same customer and last 4 digits it only selects the first one regardless of which you select</t>
+  </si>
+  <si>
+    <t>Can't import twice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -836,10 +840,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
@@ -2492,9 +2496,15 @@
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D87" s="8"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3964EB-768B-42D2-ACFB-3CD653D214E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F47EF5-4161-4841-9084-016590A620DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="105">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Can't import twice</t>
+  </si>
+  <si>
+    <t>Objects moving away from right side if touching right side of canvas</t>
   </si>
 </sst>
 </file>
@@ -843,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,10 +2512,16 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="7"/>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D88" s="8"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>

--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYNC\js-truckwrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F47EF5-4161-4841-9084-016590A620DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E804B-C634-41D4-89CD-8ECC3DFEC272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="104">
   <si>
     <t>Update does not resize text</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>If two units end in the same last 4 digits during import, only one appears regardless of customer/drop</t>
-  </si>
-  <si>
-    <t>Needs testing</t>
   </si>
   <si>
     <t>Implement Jsdoc</t>
@@ -355,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,12 +431,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -468,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,11 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +833,7 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,22 +2267,24 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="28">
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="19">
         <v>44185</v>
       </c>
-      <c r="F74" s="27"/>
+      <c r="F74" s="19">
+        <v>44208</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
@@ -2360,7 +2348,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>20</v>
@@ -2376,7 +2364,7 @@
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>16</v>
@@ -2396,7 +2384,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>16</v>
@@ -2416,7 +2404,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="7"/>
@@ -2426,7 +2414,7 @@
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>16</v>
@@ -2446,7 +2434,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="7"/>
@@ -2455,76 +2443,104 @@
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="C84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="19">
+        <v>44206</v>
+      </c>
+      <c r="F84" s="19">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="13">
-        <v>44206</v>
-      </c>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="B85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="19">
+        <v>44208</v>
+      </c>
+      <c r="F85" s="19">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="B86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="19">
+        <v>44208</v>
+      </c>
+      <c r="F86" s="19">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="19">
+        <v>44211</v>
+      </c>
+      <c r="F87" s="19">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="B88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
+      <c r="D88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="19">
+        <v>44212</v>
+      </c>
+      <c r="F88" s="19">
+        <v>44213</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
